--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -2675,13 +2675,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store,
-White Camry, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -3652,13 +3651,13 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>@ Store,
-Equip</t>
+White Camry, Equip</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -1894,7 +1894,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1970,12 +1970,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2038,22 +2039,9 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2179,7 +2167,11 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2257,7 +2249,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2324,7 +2316,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2380,7 +2372,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #378, RACINE - CALEDONIA</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2439,7 +2431,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>PICK #378, RACINE - CALEDONIA</t>
+          <t>5111 DOUGLAS AVENUE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2490,7 +2482,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>5111 DOUGLAS AVENUE</t>
+          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2541,7 +2533,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
+          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meey</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2582,11 +2574,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meey</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2625,9 +2613,21 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2670,17 +2670,18 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2725,20 +2726,15 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2777,12 +2773,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2824,15 +2820,20 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2863,20 +2864,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2927,12 +2923,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2995,12 +2991,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3063,12 +3059,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3118,12 +3114,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3178,15 +3174,19 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3225,12 +3225,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3274,21 +3274,9 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3357,7 +3345,11 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3394,7 +3386,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3433,7 +3425,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3476,7 +3468,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #102, ZION</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3519,7 +3511,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #102, ZION</t>
+          <t>3341 SHERIDAN RD</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3550,7 +3542,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>3341 SHERIDAN RD</t>
+          <t>https://goo.gl/maps/RC9kMWnG1wn</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3579,11 +3571,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/RC9kMWnG1wn</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3613,9 +3601,22 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3646,18 +3647,18 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store,
-White Camry, Equip</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3690,20 +3691,15 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3734,12 +3730,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3773,12 +3769,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3810,16 +3806,8 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -2056,7 +2056,7 @@
       <c r="S29" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Optima</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       <c r="S45" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -2415,7 +2415,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2561,9 +2561,21 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2653,11 +2665,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2711,7 +2719,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2760,7 +2768,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -1140,12 +1140,13 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1225,13 +1226,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1307,14 +1307,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1382,7 +1378,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1458,7 +1454,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1669,7 +1665,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1744,7 +1740,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1819,7 +1815,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1894,7 +1890,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1970,13 +1966,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2039,9 +2034,22 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2167,11 +2175,7 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2249,7 +2253,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2316,7 +2320,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2372,7 +2376,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #378, RACINE - CALEDONIA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2431,7 +2435,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5111 DOUGLAS AVENUE</t>
+          <t>PICK #378, RACINE - CALEDONIA</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2482,7 +2486,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
+          <t>5111 DOUGLAS AVENUE</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2533,7 +2537,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meey</t>
+          <t>https://goo.gl/maps/b5CYjdz3kAC2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2586,7 +2590,11 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meey</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2625,21 +2633,9 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2678,18 +2674,17 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2734,15 +2729,20 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2785,12 +2785,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2832,20 +2832,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2876,15 +2871,20 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2935,12 +2935,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3003,12 +3003,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3071,12 +3071,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3126,12 +3126,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3186,19 +3186,15 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3237,19 +3233,15 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3286,8 +3278,16 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3321,9 +3321,21 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3356,13 +3368,21 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3396,11 +3416,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3435,11 +3451,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3480,7 +3492,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #102, ZION</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3523,7 +3535,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>3341 SHERIDAN RD</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3552,11 +3564,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/RC9kMWnG1wn</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3613,22 +3621,9 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3657,22 +3652,9 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3701,16 +3683,8 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3740,16 +3714,8 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3779,16 +3745,8 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -2565,21 +2565,9 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2661,7 +2649,11 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2714,7 +2706,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2768,11 +2760,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2940,7 +2928,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3008,7 +2996,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3076,7 +3064,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3131,7 +3119,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3191,7 +3179,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3238,7 +3226,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3285,10 +3273,14 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3328,7 +3320,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3368,21 +3360,9 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3451,7 +3431,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3492,7 +3476,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3533,11 +3517,7 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>

--- a/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
+++ b/06-15-25 to 06-21-25 Milwaukee Schedule.xlsx
@@ -1203,7 +1203,7 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2580,7 +2580,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meey</t>
+          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meet</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meey</t>
+          <t>Grafton crew meet at 4:45 am.  Carlie needed for Ryan Rd meet</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       <c r="S45" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3168,7 +3168,7 @@
       <c r="K49" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
